--- a/Design_docs/plantsim prototyping.xlsx
+++ b/Design_docs/plantsim prototyping.xlsx
@@ -10,15 +10,13 @@
     <sheet name="mechanics" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="pea N content" sheetId="3" r:id="rId3"/>
-    <sheet name=" " sheetId="4" r:id="rId4"/>
-    <sheet name="light" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="200">
   <si>
     <t>HU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,74 +812,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Canopy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt; 2 m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 &gt; x &gt; 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x &lt; 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(lai)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>next</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;2 m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Canopy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -889,7 +819,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,17 +851,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,13 +864,8 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -972,34 +888,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,18 +910,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="계산" xfId="2" builtinId="22"/>
+  <cellStyles count="2">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1102,11 +996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64407040"/>
-        <c:axId val="57977664"/>
+        <c:axId val="180205568"/>
+        <c:axId val="173639360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64407040"/>
+        <c:axId val="180205568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,7 +1009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57977664"/>
+        <c:crossAx val="173639360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1123,7 +1017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57977664"/>
+        <c:axId val="173639360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,13 +1028,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64407040"/>
+        <c:crossAx val="180205568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1170,6 +1065,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1943,11 +1839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="57979392"/>
-        <c:axId val="57979968"/>
+        <c:axId val="173641088"/>
+        <c:axId val="173641664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57979392"/>
+        <c:axId val="173641088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,18 +1869,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57979968"/>
+        <c:crossAx val="173641664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57979968"/>
+        <c:axId val="173641664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,19 +1905,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57979392"/>
+        <c:crossAx val="173641088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2389,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2529,12 +2428,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2696,18 +2595,18 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="4"/>
       <c r="C26">
         <v>10</v>
       </c>
@@ -2748,11 +2647,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="G29" t="s">
         <v>55</v>
       </c>
@@ -2818,11 +2717,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="G33" t="s">
         <v>9</v>
       </c>
@@ -2963,11 +2862,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="F43" t="s">
         <v>94</v>
       </c>
@@ -3120,11 +3019,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
@@ -3215,11 +3114,11 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -3241,11 +3140,11 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
@@ -3275,11 +3174,11 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
       <c r="F70" t="s">
         <v>155</v>
       </c>
@@ -3463,16 +3362,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5763,411 +5662,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M1" t="s">
-        <v>208</v>
-      </c>
-      <c r="N1" t="s">
-        <v>206</v>
-      </c>
-      <c r="O1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" t="s">
-        <v>213</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D3">
-        <v>1.6</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>1.5</v>
-      </c>
-      <c r="L3">
-        <v>0.2</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4">
-        <v>1.4</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>211</v>
-      </c>
-      <c r="J5">
-        <v>0.5</v>
-      </c>
-      <c r="L5">
-        <v>0.8</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D6">
-        <f>D2/SUM($D2:$G2) * $G5</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:F6" si="0">E2/SUM($D2:$G2) * $G5</f>
-        <v>666.66666666666663</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f>G2/SUM($D2:$G2) * $G5</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="I6" t="s">
-        <v>216</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D7">
-        <f t="shared" ref="D7:D9" si="1">D3/SUM($D3:$G3) * $G6</f>
-        <v>95.238095238095241</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E9" si="2">E3/SUM($D3:$G3) * $G6</f>
-        <v>119.04761904761904</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ref="F7:G9" si="3">F3/SUM($D3:$G3) * $G6</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>119.04761904761904</v>
-      </c>
-      <c r="O7">
-        <v>1000</v>
-      </c>
-      <c r="P7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>37.878787878787868</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>27.056277056277054</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G8:G9" si="4">G4/SUM($D4:$G4) * $G7</f>
-        <v>54.112554112554108</v>
-      </c>
-      <c r="L8">
-        <f>L2/SUM($L2:$O2) * $O7</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>M2/SUM($L2:$O2) * $O7</f>
-        <v>333.33333333333331</v>
-      </c>
-      <c r="N8">
-        <f>N2/SUM($L2:$O2) * $O7</f>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f>O2/SUM($L2:$O2) * $O7</f>
-        <v>666.66666666666663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="6">
-        <f>SUM(D6:D8)</f>
-        <v>133.11688311688312</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" ref="E9:F9" si="5">SUM(E6:E8)</f>
-        <v>785.71428571428567</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="5"/>
-        <v>27.056277056277054</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="L9">
-        <f>L3/SUM($L3:$O3) * $O8</f>
-        <v>21.50537634408602</v>
-      </c>
-      <c r="M9">
-        <f>M3/SUM($L3:$O3) * $O8</f>
-        <v>430.10752688172039</v>
-      </c>
-      <c r="N9">
-        <f>N3/SUM($L3:$O3) * $O8</f>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f>O3/SUM($L3:$O3) * $O8</f>
-        <v>215.05376344086019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L10">
-        <f>L4/SUM($L4:$O4) * $O9</f>
-        <v>86.021505376344081</v>
-      </c>
-      <c r="M10">
-        <f>M4/SUM($L4:$O4) * $O9</f>
-        <v>43.01075268817204</v>
-      </c>
-      <c r="N10">
-        <f>N4/SUM($L4:$O4) * $O9</f>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f>O4/SUM($L4:$O4) * $O9</f>
-        <v>86.021505376344081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L11">
-        <f t="shared" ref="L11:O11" si="6">L5/SUM($L5:$O5) * $O10</f>
-        <v>24.577572964669741</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="6"/>
-        <v>61.443932411674346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L12">
-        <f>L6/SUM($L6:$O6) * $O11</f>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ref="L12:O12" si="7">M6/SUM($L6:$O6) * $O11</f>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="7"/>
-        <v>20.481310803891446</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="7"/>
-        <v>40.962621607782893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K13" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" s="6">
-        <f>SUM(L8:L12)</f>
-        <v>132.10445468509982</v>
-      </c>
-      <c r="M13" s="6">
-        <f t="shared" ref="M13:N13" si="8">SUM(M8:M12)</f>
-        <v>806.45161290322574</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="8"/>
-        <v>20.481310803891446</v>
-      </c>
-      <c r="O13" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>